--- a/data/trans_bre/P1803-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1803-Edad-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">

--- a/data/trans_bre/P1803-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1803-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,12 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-8,13%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,07%</t>
         </is>
       </c>
     </row>
@@ -619,12 +678,32 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,04; 2,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,05; 4,46</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-57,22; 71,23</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-69,6; 189,4</t>
         </is>
       </c>
     </row>
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>2,62</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>58,25%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35,8%</t>
         </is>
       </c>
     </row>
@@ -679,12 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 5,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 6,91</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 159,03</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-19,13; 121,4</t>
         </is>
       </c>
     </row>
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-24,95%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-13,62%</t>
         </is>
       </c>
     </row>
@@ -739,12 +878,32 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 1,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,48; 2,02</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-54,16; 27,72</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-37,34; 20,82</t>
         </is>
       </c>
     </row>
@@ -771,12 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-6,1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>9,68%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-36,06%</t>
         </is>
       </c>
     </row>
@@ -799,12 +978,32 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 2,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,93; 1,21</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-35,52; 88,81</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-71,41; 12,84</t>
         </is>
       </c>
     </row>
@@ -831,12 +1030,32 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,24</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34,89%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>67,8%</t>
         </is>
       </c>
     </row>
@@ -859,12 +1078,32 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 4,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,21; 8,06</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-30,28; 151,47</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>22,3; 126,84</t>
         </is>
       </c>
     </row>
@@ -891,12 +1130,32 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>132,01%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>53,88%</t>
         </is>
       </c>
     </row>
@@ -919,12 +1178,32 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 5,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 4,68</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>18,77; 327,39</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1,46; 117,35</t>
         </is>
       </c>
     </row>
@@ -951,12 +1230,32 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
         </is>
       </c>
     </row>
@@ -979,12 +1278,32 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 2,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,29; 2,07</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 53,03</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-36,12; 25,9</t>
         </is>
       </c>
     </row>
@@ -998,12 +1317,12 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P1803-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1803-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,07%</t>
+          <t>1,06%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 4,46</t>
+          <t>-4,85; 4,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-69,6; 189,4</t>
+          <t>-67,55; 211,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>25,44%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 6,91</t>
+          <t>-3,28; 6,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 121,4</t>
+          <t>-32,78; 106,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-13,62%</t>
+          <t>-15,19%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,02</t>
+          <t>-6,02; 1,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,34; 20,82</t>
+          <t>-38,81; 16,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>-24,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-36,06%</t>
+          <t>-69,63%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 1,21</t>
+          <t>-57,85; 0,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-71,41; 12,84</t>
+          <t>-85,98; 8,07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>5,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>67,8%</t>
+          <t>63,58%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 8,06</t>
+          <t>1,99; 8,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,3; 126,84</t>
+          <t>19,74; 120,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>132,01%</t>
+          <t>239,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>53,88%</t>
+          <t>11,15%</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,06</t>
+          <t>1,83; 8,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,68</t>
+          <t>-4,83; 5,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,77; 327,39</t>
+          <t>34,07; 817,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 117,35</t>
+          <t>-56,4; 91,83</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>44,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>106,53%</t>
         </is>
       </c>
     </row>
@@ -1278,44 +1278,144 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>-1,45; 3,78</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 5,45</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-44,28; 246,57</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 300,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-5,42</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-36,46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>-0,03; 2,06</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-5,29; 2,07</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-26,46; 1,62</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-0,54; 53,03</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-36,12; 25,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-74,05; 18,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P1803-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1803-Edad-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 2,52</t>
+          <t>-3,62; 2,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 4,84</t>
+          <t>-4,7; 4,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,22; 71,23</t>
+          <t>-52,65; 61,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-67,55; 211,15</t>
+          <t>-63,64; 274,76</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 5,27</t>
+          <t>-0,09; 5,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 6,37</t>
+          <t>-3,4; 6,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 159,03</t>
+          <t>-2,94; 168,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 106,94</t>
+          <t>-33,33; 114,2</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 1,14</t>
+          <t>-4,01; 0,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 1,73</t>
+          <t>-6,18; 1,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 27,72</t>
+          <t>-55,02; 23,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-38,81; 16,46</t>
+          <t>-39,02; 13,62</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,98</t>
+          <t>-2,01; 3,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,85; 0,83</t>
+          <t>-65,42; 0,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 88,81</t>
+          <t>-33,43; 90,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-85,98; 8,07</t>
+          <t>-86,59; 5,44</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,72</t>
+          <t>-1,61; 4,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 8,05</t>
+          <t>2,12; 8,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,28; 151,47</t>
+          <t>-28,13; 139,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,74; 120,18</t>
+          <t>21,25; 123,46</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,51</t>
+          <t>2,11; 8,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 5,28</t>
+          <t>-4,85; 5,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,07; 817,69</t>
+          <t>41,04; 815,29</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-56,4; 91,83</t>
+          <t>-57,72; 84,54</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 3,78</t>
+          <t>-1,57; 4,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,45</t>
+          <t>0,95; 5,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-44,28; 246,57</t>
+          <t>-44,66; 295,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,98; 300,65</t>
+          <t>14,06; 280,21</t>
         </is>
       </c>
     </row>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,06</t>
+          <t>-0,17; 1,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 1,62</t>
+          <t>-25,87; 1,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 53,03</t>
+          <t>-3,64; 47,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-74,05; 18,94</t>
+          <t>-74,92; 18,38</t>
         </is>
       </c>
     </row>
